--- a/docs/planning_TP_NIFFF2015.xlsx
+++ b/docs/planning_TP_NIFFF2015.xlsx
@@ -78,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +103,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -316,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -353,7 +347,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,13 +653,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50.88671875" customWidth="1"/>
-    <col min="3" max="9" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -758,8 +758,8 @@
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="41.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -784,7 +784,7 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
